--- a/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
+++ b/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
@@ -1,45 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet!$A$1:$S$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet!$A$1:$S$12</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown User</author>
+    <author>ZPC17-075</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">MIC与AUX共同使用4个出口，如MIC0用了，则AUX0不能使用。因而MIC和AUX需要错开使用。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color rgb="FF000000"/>
-            <sz val="9.0"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
+          <t>外挂FLASH的5个IO没有计算在内</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支持1：2组差分MIC
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
         </r>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZPC17-075:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+2个单端AUX
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+1个单端AUX</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
         </r>
       </text>
     </comment>
@@ -47,80 +145,71 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+1个单端AUX</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color rgb="FF000000"/>
-            <sz val="9.0"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支持1：3组差分MIC+1个单端MIC
+          <t>支持1：3组差分MIC+1个单端MIC
 支持2：4个单端AUX
 支持3：3组差分MIC+1个单端AUX</t>
         </r>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
+ </t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">MIC与AUX共同使用4个出口，如MIC0用了，则AUX0不能使用。因而MIC和AUX需要错开使用。
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
-          </rPr>
-          <t xml:space="preserve">外挂FLASH的5个IO没有计算在内</t>
-        </r>
-        <r>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
-          </rPr>
-          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
+          <t>支持1：1组差分MIC+1个单端MIC
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
         </r>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
+ </t>
         </r>
       </text>
     </comment>
@@ -128,83 +217,47 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
 支持2：2组差分MIC+1个单端AUX
 </t>
         </r>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
+ </t>
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
-          </rPr>
-          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
 支持2：2组差分MIC+1个单端AUX
 </t>
         </r>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="宋体"/>
-            <color rgb="FF000000"/>
-            <sz val="9.0"/>
-          </rPr>
-          <t xml:space="preserve">支持1：2组差分MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t xml:space="preserve">  - 彭泽令</t>
         </r>
       </text>
     </comment>
@@ -213,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>AC791N系列选型表</t>
   </si>
@@ -312,6 +365,24 @@
   </si>
   <si>
     <t>带屏绘本故事机等</t>
+  </si>
+  <si>
+    <t>AC7915A</t>
+  </si>
+  <si>
+    <t>AC7915AA</t>
+  </si>
+  <si>
+    <t>QFN76(6*6)</t>
+  </si>
+  <si>
+    <t>SDRAM:1M*16bit</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>绘本故事机/WIFI音箱等</t>
   </si>
   <si>
     <t>AC7915B</t>
@@ -339,9 +410,6 @@
     <t>QFN48(6*6)</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>管脚一致</t>
   </si>
   <si>
@@ -349,9 +417,6 @@
   </si>
   <si>
     <t>AC7911BA</t>
-  </si>
-  <si>
-    <t>SDRAM:1M*16bit</t>
   </si>
   <si>
     <t>WIFI音箱/绘本故事机等</t>
@@ -410,26 +475,101 @@
   </si>
   <si>
     <t>儿童故事机（按键唤醒）等</t>
+  </si>
+  <si>
+    <t>备注：上述芯片的外设资源，是在IO不复用的情况下，列举其中1种常用方案的组合。其芯片的具体外设资源请参照对应的硬件规格书</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,40 +577,141 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,20 +721,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6DDE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -550,7 +980,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,9 +1010,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +1039,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -617,136 +1062,392 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -828,26 +1529,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -880,23 +1564,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1038,319 +1705,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane topLeftCell="A3" activePane="bottomRight" state="frozen" ySplit="2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.166015625" customWidth="1" style="33"/>
-    <col min="2" max="2" width="12.3310546875" customWidth="1" style="33"/>
-    <col min="3" max="3" width="17.1650390625" customWidth="1" style="33"/>
-    <col min="4" max="4" width="13.8310546875" customWidth="1" style="33"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1" style="33"/>
-    <col min="6" max="6" width="9.6650390625" customWidth="1" style="33"/>
-    <col min="7" max="7" width="10.8310546875" customWidth="1" style="33"/>
-    <col min="8" max="8" width="9.6650390625" customWidth="1" style="33"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1" style="33"/>
-    <col min="10" max="10" width="8.1650390625" customWidth="1" style="33"/>
-    <col min="11" max="12" width="9.6650390625" customWidth="1" style="33"/>
-    <col min="13" max="13" width="8.8330078125" customWidth="1" style="33"/>
-    <col min="14" max="14" width="8.666015625" customWidth="1" style="33"/>
-    <col min="15" max="15" width="7.5" customWidth="1" style="33"/>
-    <col min="16" max="16" width="10.166015625" customWidth="1" style="33"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1" style="33"/>
-    <col min="18" max="18" width="12.6650390625" customWidth="1" style="33"/>
-    <col min="19" max="19" width="30.1640625" customWidth="1" style="33"/>
-    <col min="20" max="20" width="9" style="3"/>
+    <col min="1" max="1" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.1666666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.95" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="27.95" customHeight="1" spans="1:19">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" s="33" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" ht="27.95" customHeight="1" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="28"/>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" ht="24.95" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="8">
         <v>50</v>
       </c>
-      <c r="K3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="14" t="n">
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>24</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="14" t="s">
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:19">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8">
         <v>37</v>
       </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" ht="24.95" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="24.95" customHeight="1">
-      <c r="A6" s="16"/>
+    <row r="6" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>25</v>
@@ -1361,344 +2030,448 @@
       <c r="H6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="20">
         <v>2</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>23</v>
       </c>
-      <c r="K6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="n">
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24" t="s">
+      <c r="N6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="20">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>23</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="11" t="s">
+      <c r="R7" s="24"/>
+      <c r="S7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" ht="24.95" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="17" t="n">
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="11">
         <v>4</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J8" s="11">
         <v>23</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="L7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17" t="n">
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="17" t="n">
+      <c r="N8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="11">
         <v>2</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" ht="24.95" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>52</v>
-      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" ht="24.95" customHeight="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>26</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J10" s="8">
         <v>45</v>
       </c>
-      <c r="K9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>57</v>
+      <c r="R10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" ht="33.949999999999996" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="25" t="s">
+    <row r="11" ht="33.95" customHeight="1" spans="1:19">
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="25" t="n">
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11">
         <v>3</v>
       </c>
-      <c r="J10" s="25" t="n">
+      <c r="J11" s="11">
         <v>13</v>
       </c>
-      <c r="K10" s="25" t="n">
+      <c r="K11" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="25" t="n">
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="25" t="s">
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>49</v>
+      <c r="R11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="25" t="s">
+    <row r="12" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="25" t="n">
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="14">
         <v>3</v>
       </c>
-      <c r="J11" s="25" t="n">
+      <c r="J12" s="14">
         <v>16</v>
       </c>
-      <c r="K11" s="25" t="n">
+      <c r="K12" s="14">
         <v>2</v>
       </c>
-      <c r="L11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="25" t="s">
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="25" t="s">
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="8" customHeight="1" spans="1:19">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="R5:R7"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A14:S15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/dingComments.xml><?xml version="1.0" encoding="utf-8"?>
-<dingComments>
-  <dingCommentList sheetId="1">
-    <dingComment ref="I5" cmtId="cmt-1c09a6e8-83643"/>
-    <dingComment ref="I7" cmtId="cmt-2271d4a2-62946"/>
-    <dingComment ref="I2" cmtId="cmt-d598afce-71495"/>
-    <dingComment ref="J2" cmtId="cmt-a553ae70-57652"/>
-    <dingComment ref="I6" cmtId="cmt-583dfd07-10479"/>
-    <dingComment ref="I11" cmtId="cmt-432c3b97-51929"/>
-    <dingComment ref="I8" cmtId="cmt-4276b164-14775"/>
-    <dingComment ref="I10" cmtId="cmt-9d4ac4e7-61396"/>
-    <dingComment ref="I3" cmtId="cmt-9ae8b46e-51407"/>
-  </dingCommentList>
-</dingComments>
 </file>
--- a/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
+++ b/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="726"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$1:$S$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet!$A$1:$S$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
-    <author>ZPC20-039</author>
+    <author>Unknown User</author>
+    <author>ZPC17-075</author>
   </authors>
   <commentList>
     <comment ref="I2" authorId="0">
@@ -28,23 +28,43 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">MIC与AUX共同使用4个出口，如MIC0用了，则AUX0不能使用。因而MIC和AUX需要错开使用。
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  - 彭泽令</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>外挂FLASH的5个IO没有计算在内</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  - 彭泽令</t>
         </r>
       </text>
     </comment>
@@ -53,6 +73,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -60,19 +81,39 @@
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  </t>
+        </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="1">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZPC17-075:</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>支持1：2组差分MIC
+          <t xml:space="preserve">
+支持1：1组差分MIC+1个单端MIC
 支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
+支持3：1组差分MIC+2个单端AUX
+</t>
         </r>
       </text>
     </comment>
@@ -81,12 +122,22 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>支持1：1组差分MIC+1个单端MIC
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -95,12 +146,22 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>支持1：1组差分MIC+1个单端MIC
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -109,12 +170,22 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>支持1：3组差分MIC+1个单端MIC
 支持2：4个单端AUX
 支持3：3组差分MIC+1个单端AUX</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ </t>
         </r>
       </text>
     </comment>
@@ -123,6 +194,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -130,19 +202,14 @@
 支持2：2个单端AUX
 支持3：1组差分MIC+1个单端AUX</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0">
-      <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
-支持2：2组差分MIC+1个单端AUX
-</t>
+          <t xml:space="preserve">
+ </t>
         </r>
       </text>
     </comment>
@@ -151,11 +218,45 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
 支持2：2组差分MIC+1个单端AUX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
+支持2：2组差分MIC+1个单端AUX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -165,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>AC791N系列选型表</t>
   </si>
@@ -266,13 +367,22 @@
     <t>带屏绘本故事机等</t>
   </si>
   <si>
-    <t>AC7916AA</t>
-  </si>
-  <si>
-    <t>QFN76(9*9</t>
+    <t>AC7915A</t>
+  </si>
+  <si>
+    <t>AC7915AA</t>
+  </si>
+  <si>
+    <t>QFN76(6*6)</t>
   </si>
   <si>
     <t>SDRAM:1M*16bit</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>绘本故事机/WIFI音箱等</t>
   </si>
   <si>
     <t>AC7915B</t>
@@ -300,9 +410,6 @@
     <t>QFN48(6*6)</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>管脚一致</t>
   </si>
   <si>
@@ -334,6 +441,18 @@
   </si>
   <si>
     <t>航拍/内窥镜/WIFI音箱等</t>
+  </si>
+  <si>
+    <t>AC7912A</t>
+  </si>
+  <si>
+    <t>AC7912AB</t>
+  </si>
+  <si>
+    <t>QFN68(7*7)</t>
+  </si>
+  <si>
+    <t>带屏绘本故事机/IPC等</t>
   </si>
   <si>
     <t>AC7913A</t>
@@ -356,6 +475,9 @@
   </si>
   <si>
     <t>儿童故事机（按键唤醒）等</t>
+  </si>
+  <si>
+    <t>备注：上述芯片的外设资源，是在IO不复用的情况下，列举其中1种常用方案的组合。其芯片的具体外设资源请参照对应的硬件规格书</t>
   </si>
 </sst>
 </file>
@@ -365,94 +487,96 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -460,7 +584,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -468,14 +592,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -483,7 +607,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,7 +615,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -499,7 +623,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -507,60 +631,60 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -569,8 +693,25 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,7 +720,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DDE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,199 +900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,14 +933,14 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,38 +948,92 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -864,65 +1053,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,11 +1107,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,15 +1125,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,257 +1152,244 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,13 +1444,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1385,18 +1494,18 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Cambria-Calibri">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1425,13 +1534,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1457,7 +1566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007-2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1466,160 +1575,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:satMod val="350000"/>
-                <a:shade val="99000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1632,35 +1712,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="8.25" customWidth="1"/>
-    <col min="11" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="8.875" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.1666666666667" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1718,7 +1799,7 @@
       <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1727,25 +1808,25 @@
       <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:19">
       <c r="A3" s="7" t="s">
@@ -1754,52 +1835,52 @@
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="10">
-        <v>45</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1</v>
-      </c>
-      <c r="L3" s="22">
-        <v>1</v>
-      </c>
-      <c r="M3" s="22">
-        <v>1</v>
-      </c>
-      <c r="N3" s="22" t="s">
+      <c r="J3" s="8">
+        <v>50</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="22">
-        <v>1</v>
-      </c>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -1807,490 +1888,590 @@
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="10">
-        <v>45</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1</v>
-      </c>
-      <c r="L4" s="22">
-        <v>1</v>
-      </c>
-      <c r="M4" s="22">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="22">
-        <v>1</v>
-      </c>
-      <c r="P4" s="22" t="s">
+      <c r="J4" s="11">
+        <v>24</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>32</v>
+      <c r="R4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:19">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8">
         <v>37</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="14">
-        <v>37</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="14">
-        <v>1</v>
-      </c>
-      <c r="P5" s="14" t="s">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>40</v>
+      <c r="R5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="20">
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <v>23</v>
       </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>46</v>
+      <c r="N6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="20">
         <v>2</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>23</v>
       </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="25" t="s">
+      <c r="N7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="10" t="s">
-        <v>48</v>
+      <c r="R7" s="24"/>
+      <c r="S7" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="11">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>23</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="L8" s="17">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17">
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="N8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="11">
         <v>2</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="10" t="s">
-        <v>51</v>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A9" s="16"/>
-      <c r="B9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="20">
         <v>2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>26</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="10">
-        <v>1</v>
-      </c>
-      <c r="P9" s="28" t="s">
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>55</v>
+      <c r="R9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>45</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" ht="33.95" customHeight="1" spans="1:19">
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11">
         <v>3</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="11">
         <v>13</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="14">
-        <v>1</v>
-      </c>
-      <c r="P10" s="14" t="s">
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>51</v>
+      <c r="R11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:19">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="20" t="s">
+    <row r="12" ht="24.95" customHeight="1" spans="1:19">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="14">
         <v>3</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>16</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>2</v>
       </c>
-      <c r="L11" s="14">
-        <v>1</v>
-      </c>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14" t="s">
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="14">
-        <v>1</v>
-      </c>
-      <c r="P11" s="14" t="s">
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="8" customHeight="1" spans="1:19">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A13:S13"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="R6:R8"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="A14:S15"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A10" location="AC7905A!A1" display="AC7913A"/>
-    <hyperlink ref="A6" location="AC7911B!A1" display="AC7911B"/>
-    <hyperlink ref="A3" location="AC7916A!A1" display="AC7916A"/>
-    <hyperlink ref="A6:A8" location="AC7911B!A1" display="AC7911B"/>
-    <hyperlink ref="A10:A11" location="AC7913A!A1" display="AC7913A"/>
-    <hyperlink ref="A5" location="AC7915B!A1" display="AC7915B"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <commentList sheetStid="1">
-    <comment s:ref="I4" rgbClr="0FCAA8"/>
-  </commentList>
-</comments>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
+++ b/doc/datasheet/AC791N规格书/datasheet/AC791N选型表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet!$A$1:$S$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -20,28 +20,100 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown User</author>
-    <author>ZPC17-075</author>
+    <author>冯舜坚</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">MIC与AUX共同使用4个出口，如MIC0用了，则AUX0不能使用。因而MIC和AUX需要错开使用。
-</t>
+          <t xml:space="preserve">ZPC17-075:
+支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+2个单端AUX
+  - 彭泽令</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">支持1：2组差分MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+1个单端AUX
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
+支持2：2组差分MIC+1个单端AUX
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+1个单端AUX
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
+支持2：2组差分MIC+1个单端AUX
+  - 彭泽令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
+支持2：2个单端AUX
+支持3：1组差分MIC+1个单端AUX
   - 彭泽令</t>
         </r>
       </text>
@@ -51,117 +123,44 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>外挂FLASH的5个IO没有计算在内</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">外挂FLASH的5个IO没有计算在内
+  - 彭泽令
   - 彭泽令</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>支持1：2组差分MIC
+          <t xml:space="preserve">支持1：1组差分MIC+1个单端MIC
 支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-  </t>
+支持3：1组差分MIC+1个单端AUX
+  - 彭泽令</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZPC17-075:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-支持1：1组差分MIC+1个单端MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+2个单端AUX
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>支持1：1组差分MIC+1个单端MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>支持1：1组差分MIC+1个单端MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">MIC与AUX共同使用4个出口，如MIC0用了，则AUX0不能使用。因而MIC和AUX需要错开使用。
+  - 彭泽令
+  - 彭泽令</t>
         </r>
       </text>
     </comment>
@@ -170,94 +169,148 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>支持1：3组差分MIC+1个单端MIC
+          <t xml:space="preserve">支持1：3组差分MIC+1个单端MIC
 支持2：4个单端AUX
-支持3：3组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- </t>
+支持3：3组差分MIC+1个单端AUX
+  - 彭泽令</t>
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>支持1：1组差分MIC+1个单端MIC
-支持2：2个单端AUX
-支持3：1组差分MIC+1个单端AUX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- </t>
+          <t xml:space="preserve">OSC:支持外挂32K晶体
+LRC:支持芯片内置RC振荡器
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="H10" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
-支持2：2组差分MIC+1个单端AUX
+          <t xml:space="preserve">OSC:支持外挂32K晶体
+LRC:支持芯片内置RC振荡器
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- </t>
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支持1：2组差分MIC+1个单端MIC
-支持2：2组差分MIC+1个单端AUX
-</t>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="1">
+      <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LRC:仅支持芯片内置RC振荡器</t>
         </r>
       </text>
     </comment>
@@ -266,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>AC791N系列选型表</t>
   </si>
@@ -292,7 +345,7 @@
     <t>MCU/RGB屏</t>
   </si>
   <si>
-    <t>RTC OSC</t>
+    <t xml:space="preserve">RTC时钟 </t>
   </si>
   <si>
     <t>MIC/AUX</t>
@@ -349,7 +402,7 @@
     <t>16 Bit</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>OSC/LRC</t>
   </si>
   <si>
     <t>L+R</t>
@@ -373,12 +426,15 @@
     <t>AC7915AA</t>
   </si>
   <si>
-    <t>QFN76(6*6)</t>
+    <t>QFN52(6*6)</t>
   </si>
   <si>
     <t>SDRAM:1M*16bit</t>
   </si>
   <si>
+    <t xml:space="preserve">LRC </t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
@@ -389,9 +445,6 @@
   </si>
   <si>
     <t>AC7915B6A</t>
-  </si>
-  <si>
-    <t>QFN52(6*6)</t>
   </si>
   <si>
     <t>SDRAM:1M*16bit
@@ -437,6 +490,9 @@
     <t>FLASH:8Mbit</t>
   </si>
   <si>
+    <t>LRC</t>
+  </si>
+  <si>
     <t>B8可兼容B0</t>
   </si>
   <si>
@@ -472,6 +528,9 @@
   </si>
   <si>
     <t>FLASH:16Mbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LRC </t>
   </si>
   <si>
     <t>儿童故事机（按键唤醒）等</t>
@@ -485,12 +544,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,6 +592,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -553,23 +618,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,9 +687,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,38 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,28 +753,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -738,25 +781,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,25 +871,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +913,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -834,66 +937,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -923,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1039,29 +1082,53 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,25 +1148,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1129,36 +1183,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1168,148 +1196,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,13 +1387,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1380,7 +1408,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1389,7 +1417,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1444,12 +1472,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1705,21 +1728,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:S15"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -1740,7 +1764,7 @@
     <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.1666666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.8333333333333" style="1" customWidth="1"/>
     <col min="19" max="19" width="30.1666666666667" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="2"/>
   </cols>
@@ -1910,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -1928,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="19">
         <v>1</v>
@@ -1943,21 +1967,21 @@
         <v>31</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:19">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>42</v>
@@ -1969,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>31</v>
@@ -2028,7 +2052,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I6" s="20">
         <v>2</v>
@@ -2046,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" s="11">
         <v>1</v>
@@ -2081,7 +2105,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I7" s="20">
         <v>2</v>
@@ -2099,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" s="11">
         <v>1</v>
@@ -2136,7 +2160,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I8" s="11">
         <v>4</v>
@@ -2154,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" s="11">
         <v>2</v>
@@ -2187,7 +2211,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I9" s="20">
         <v>2</v>
@@ -2205,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O9" s="11">
         <v>1</v>
@@ -2217,24 +2241,24 @@
         <v>30</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:19">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -2279,21 +2303,21 @@
         <v>31</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="33.95" customHeight="1" spans="1:19">
       <c r="A11" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>52</v>
@@ -2305,7 +2329,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I11" s="11">
         <v>3</v>
@@ -2334,8 +2358,8 @@
       <c r="Q11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>65</v>
+      <c r="R11" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>53</v>
@@ -2344,16 +2368,16 @@
     <row r="12" ht="24.95" customHeight="1" spans="1:19">
       <c r="A12" s="15"/>
       <c r="B12" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>31</v>
@@ -2362,7 +2386,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I12" s="14">
         <v>3</v>
@@ -2393,7 +2417,7 @@
       </c>
       <c r="R12" s="14"/>
       <c r="S12" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" ht="8" customHeight="1" spans="1:19">
@@ -2419,7 +2443,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2470,7 +2494,7 @@
     <mergeCell ref="R6:R8"/>
     <mergeCell ref="A14:S15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
